--- a/static/upload/MAYA-HEOVANGTEST.xlsx
+++ b/static/upload/MAYA-HEOVANGTEST.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBA9711-813D-8540-81AA-5C31CBFF6034}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7666C9-A909-764A-AE04-7440FA241304}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="960" windowWidth="27280" windowHeight="16540" xr2:uid="{06C4A54D-94D9-954A-B3EB-7ACD3BC5CBEC}"/>
   </bookViews>
@@ -422,7 +422,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -458,7 +458,7 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>6717161</v>
+        <v>671716122</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
